--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/128.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/128.xlsx
@@ -479,13 +479,13 @@
         <v>-18.75811494638284</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.313683663203232</v>
+        <v>-9.818706153019974</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.997852033931844</v>
+        <v>-3.068275530917488</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.979597821529272</v>
+        <v>-6.614050817239318</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.30106570058852</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.595574035688436</v>
+        <v>-10.11042884493931</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.001609524847419</v>
+        <v>-3.018996103021231</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.937021652687979</v>
+        <v>-6.58198776757993</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.77300063354616</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.42049385313991</v>
+        <v>-10.93380377065547</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.839998138569153</v>
+        <v>-2.82723314329847</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.818745788815826</v>
+        <v>-6.462625242571914</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.20268334640798</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.16138727095319</v>
+        <v>-11.66083243975936</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.776539746695306</v>
+        <v>-2.795366478181708</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.047874180848874</v>
+        <v>-6.705199429623415</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.56430500131641</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.98468364285229</v>
+        <v>-12.51561579999281</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.610071116062759</v>
+        <v>-2.597620336060278</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.579968369588426</v>
+        <v>-6.216424487633256</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.85579251539574</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.67154512683777</v>
+        <v>-13.20038251552361</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.563475610249056</v>
+        <v>-2.535798482041647</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.681119501343601</v>
+        <v>-6.306172223613287</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.0772729165694</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.21265000328631</v>
+        <v>-13.76854918194599</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.452479066756903</v>
+        <v>-2.441219686313018</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.201064033046031</v>
+        <v>-5.794551213164316</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.24736020256788</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.20559643540849</v>
+        <v>-14.77541273198894</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.233732870877343</v>
+        <v>-2.257665600472019</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.040238184938269</v>
+        <v>-5.591568149906196</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.38154297409342</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.96107467858746</v>
+        <v>-15.52261663977193</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.213047032387416</v>
+        <v>-2.227631857753099</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.656240942590443</v>
+        <v>-5.218974303333513</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.52132108711405</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.64275161064761</v>
+        <v>-16.22729674792499</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.016780320487101</v>
+        <v>-2.01874416591336</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.425174889736819</v>
+        <v>-4.985158866883127</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.71833240934261</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.29710490667708</v>
+        <v>-16.87704155335418</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.073849668574185</v>
+        <v>-2.138172152435585</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.896429147170871</v>
+        <v>-4.461650045453869</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.0294247747864</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.27691975904901</v>
+        <v>-17.8526799611196</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.876627218566423</v>
+        <v>-1.924243924001781</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.254644461869459</v>
+        <v>-3.787671387464652</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.51539858375151</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.87771244415298</v>
+        <v>-18.44293334243598</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.610604717125391</v>
+        <v>-1.66801446508636</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.937025194929185</v>
+        <v>-3.519986163562721</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.20139198050289</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.78558509240963</v>
+        <v>-19.37281415176957</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.465816939998743</v>
+        <v>-1.530885685122121</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.350961350522159</v>
+        <v>-2.92652516805012</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.08141451966281</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.68981808047629</v>
+        <v>-20.2952061638777</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.301966769934541</v>
+        <v>-1.359402702501193</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.952929159528003</v>
+        <v>-2.497503496229599</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.12509630791017</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.48825216927895</v>
+        <v>-21.09196443791662</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.094532323710233</v>
+        <v>-1.185405997734654</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.444109901887161</v>
+        <v>-2.007799000737677</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.27625387047822</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.45026148978614</v>
+        <v>-22.05253360511122</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.006041448803007</v>
+        <v>-1.082683789638471</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.082435035884478</v>
+        <v>-1.632678339716541</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.47710518103973</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.28924244048963</v>
+        <v>-22.89830946098957</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8861814162870044</v>
+        <v>-0.9895844241309569</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7134546648961124</v>
+        <v>-1.286295283432995</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.67533115941402</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.95171296428097</v>
+        <v>-23.5925942806863</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6502057498677338</v>
+        <v>-0.7781568255399227</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.3698733614206952</v>
+        <v>-0.9506610077825054</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.8289687256677</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.57079559645483</v>
+        <v>-24.20345494667556</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.364387686530012</v>
+        <v>-0.5089921714168765</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02122533674553004</v>
+        <v>-0.5858570814006502</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.91800051876717</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.22745313778444</v>
+        <v>-24.87773472763013</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1729520343782934</v>
+        <v>-0.3629082563088969</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0867730693958683</v>
+        <v>-0.3896820156202268</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.93123767423813</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.67464692594928</v>
+        <v>-25.29543155749256</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.09737017007300885</v>
+        <v>-0.2993058491037917</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3123010781474416</v>
+        <v>-0.1949340108495515</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.87280392283416</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.08190919044685</v>
+        <v>-25.74036037726578</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1296426965778636</v>
+        <v>-0.3322068061450493</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3115548168854632</v>
+        <v>-0.1616141001173587</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.75957657002112</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.34777458425378</v>
+        <v>-25.99229556084912</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1724883761006489</v>
+        <v>-0.02787622658912688</v>
       </c>
       <c r="G25" t="n">
-        <v>0.300714390132514</v>
+        <v>-0.1505249196104167</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.60872579038358</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.34760438431684</v>
+        <v>-26.00376441813847</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1596579193157573</v>
+        <v>-0.06350038262146351</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1458324475148946</v>
+        <v>-0.3162472889809853</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.44139135402438</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.32750769945479</v>
+        <v>-26.02349451852095</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.03752525378347899</v>
+        <v>-0.2578032490955201</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1555731208291388</v>
+        <v>-0.2879679148428569</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.27527147491272</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.403757271205</v>
+        <v>-26.06910810162152</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1312214375435283</v>
+        <v>-0.05423103220952145</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1364899709640864</v>
+        <v>-0.5877816499183839</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.12201708637846</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.46796192434083</v>
+        <v>-26.16792880347087</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07912716453630028</v>
+        <v>-0.1102791806749508</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2154103724940111</v>
+        <v>-0.650768718889928</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.991500149258789</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.23702679451562</v>
+        <v>-25.90571616215678</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03482823939808342</v>
+        <v>-0.2095581131237595</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3868409859035722</v>
+        <v>-0.7925976355743465</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.886594824599266</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.786010053921</v>
+        <v>-25.48356794932817</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.03955456072394653</v>
+        <v>-0.2189714788669606</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8914968912407453</v>
+        <v>-1.313160688864217</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.805685738654255</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.83898151121862</v>
+        <v>-25.55715978360151</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02441443096072704</v>
+        <v>-0.1354164021310648</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.021490366156243</v>
+        <v>-1.477442904922195</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.748965352022205</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.43881527486127</v>
+        <v>-25.13456643247627</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.03082199472851524</v>
+        <v>-0.1831247536863146</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.517780289977553</v>
+        <v>-1.978812642246095</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.709081822412085</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.82750947057539</v>
+        <v>-24.4996028369554</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1169169782157059</v>
+        <v>-0.2305712591847299</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.575464976298198</v>
+        <v>-2.010194892157712</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.681162485722441</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.47815446154677</v>
+        <v>-24.14316489208941</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3112722139011294</v>
+        <v>-0.4304121697608366</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.679365491650137</v>
+        <v>-2.149562455907887</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.66213690803688</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.71797608164763</v>
+        <v>-23.34994153981775</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4212082808631031</v>
+        <v>-0.5264965803162642</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.862448254588834</v>
+        <v>-2.319919500484426</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.645281783111354</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.92513240615839</v>
+        <v>-22.55657417221483</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3608658570655877</v>
+        <v>-0.4764316142495037</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.007576431589368</v>
+        <v>-2.483010316983808</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.62982761371534</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.53482467384085</v>
+        <v>-22.18175463415906</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.425371633166772</v>
+        <v>-0.5342079466900408</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.271883841358133</v>
+        <v>-2.755919369719588</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.617976378985459</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.88680805238678</v>
+        <v>-21.52513636973797</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3285278690465243</v>
+        <v>-0.4737476921669498</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.442869316471076</v>
+        <v>-2.943335684898897</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.614626750101772</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.51946421925362</v>
+        <v>-21.13150319249863</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5563601230982413</v>
+        <v>-0.6599987923933449</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.658813759542506</v>
+        <v>-3.135425952192701</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.630011627718407</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.9368829274025</v>
+        <v>-20.50350470208956</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3145452896115609</v>
+        <v>-0.4533236997338572</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.544661971065496</v>
+        <v>-3.046162631417813</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.670309811639713</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.3983310500081</v>
+        <v>-20.00385005643793</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.074995424516499</v>
+        <v>-0.2069265602525726</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.604375964326608</v>
+        <v>-3.150089331375435</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.744716181822115</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.49467412326648</v>
+        <v>-19.08503224300559</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0600309223684061</v>
+        <v>-0.184538722393221</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.548236169741287</v>
+        <v>-3.128945262286047</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.862989506183597</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.16991955127747</v>
+        <v>-18.75247465852291</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.01844976854308411</v>
+        <v>-0.1336227566417483</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.75563133905707</v>
+        <v>-3.359775653688519</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.02425485104123</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.62437638416558</v>
+        <v>-18.18428180749484</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.04166242148146443</v>
+        <v>-0.160880931158222</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.810213149604226</v>
+        <v>-3.427855628465495</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.23072610169552</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.18434408565517</v>
+        <v>-17.72084047150342</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02247677014015158</v>
+        <v>-0.08649046641153449</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.688415456267648</v>
+        <v>-3.245034711583632</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.47987508737129</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.51786731719426</v>
+        <v>-17.03344220310143</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.006575049865638566</v>
+        <v>-0.1388989546869639</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.038150142078677</v>
+        <v>-3.623808125097609</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.76552881748136</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.86064680684245</v>
+        <v>-16.37394363205517</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01722675670061943</v>
+        <v>-0.09370432527732556</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.940429193668033</v>
+        <v>-3.48341936172578</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.08398312946405</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.26993519492662</v>
+        <v>-15.73332416170667</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1186135499069461</v>
+        <v>-0.002293866836394142</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.193869992078167</v>
+        <v>-3.778807898440804</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.42580457383964</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.57596459049808</v>
+        <v>-15.01403304358224</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2284317861433444</v>
+        <v>0.07299996680637248</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.148950301028204</v>
+        <v>-3.738156298117244</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.78590298528351</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.76149243071431</v>
+        <v>-14.1960914235454</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2463813333393508</v>
+        <v>0.1029813403139252</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.272973685847875</v>
+        <v>-3.908683542630726</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.16252944555009</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.16736372775678</v>
+        <v>-13.61436113137899</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3170143071704629</v>
+        <v>0.1707994690340662</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.24092372849133</v>
+        <v>-3.818412114537025</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-12.54737420999724</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.5229867664927</v>
+        <v>-12.9431842261979</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3778673307788057</v>
+        <v>0.2425583809095668</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.283892666417875</v>
+        <v>-3.872941555872814</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-12.94407080730288</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.14418716837304</v>
+        <v>-12.55921316845576</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2685204174447096</v>
+        <v>0.1059663853618387</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.438774609035494</v>
+        <v>-4.071355405439173</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.35550948212003</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.6197095165335</v>
+        <v>-11.9700333559724</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06332475500633691</v>
+        <v>-0.0508924949848813</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.893142979157597</v>
+        <v>-4.486590882367357</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.78045785196786</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.19767913443046</v>
+        <v>-11.53978100768476</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09415712819860181</v>
+        <v>-0.06295050590211101</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.989593974192593</v>
+        <v>-4.605128592296344</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-14.22563406797255</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.43276134090261</v>
+        <v>-10.76376094134713</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04189265525443134</v>
+        <v>-0.1083807967629005</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.379875521904448</v>
+        <v>-5.026019944052154</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.68988062928077</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.15851687327697</v>
+        <v>-10.50635317517595</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1292761120982953</v>
+        <v>-0.2728463050606633</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.404554512761101</v>
+        <v>-5.036362863297118</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-15.17103178206765</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.568512245714588</v>
+        <v>-9.890609080226733</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.06638068924664324</v>
+        <v>-0.2220743546404496</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.696696158371377</v>
+        <v>-5.346035102412465</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-15.6665755750558</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.221435297380431</v>
+        <v>-9.571418736945452</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1780973093950918</v>
+        <v>-0.3250845933991504</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.596003257215662</v>
+        <v>-5.221762963838801</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-16.16257211227857</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.675918314874231</v>
+        <v>-9.005739608062994</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2032999923654145</v>
+        <v>-0.3518452604076384</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.978115207954279</v>
+        <v>-5.593204687761411</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-16.64835787220615</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.191817324998567</v>
+        <v>-8.530292630365713</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1631066226413154</v>
+        <v>-0.3024087248772808</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.986049143476365</v>
+        <v>-5.620737800637561</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-17.1128421397661</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.742712060618839</v>
+        <v>-8.079498458919399</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1783984323604515</v>
+        <v>-0.3165615042491867</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.96841381154856</v>
+        <v>-5.603154837921123</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-17.53531463761885</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.386090823513062</v>
+        <v>-7.732644079733551</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3373520811618477</v>
+        <v>-0.4670575254148278</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.163842616067004</v>
+        <v>-5.778068003886583</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-17.90643247787687</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.028513848299839</v>
+        <v>-7.379191179915472</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2768656420330732</v>
+        <v>-0.3912792765669174</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.426487303374871</v>
+        <v>-6.022304913398982</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-18.21553021125638</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.780846755442908</v>
+        <v>-7.124558981946742</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3926932452738238</v>
+        <v>-0.5124616316699339</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.395812037816707</v>
+        <v>-5.972200670423697</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-18.45071363540432</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.616970400773022</v>
+        <v>-6.958247458948296</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4766934603063382</v>
+        <v>-0.6093708573043902</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.491215648624364</v>
+        <v>-6.057287546592075</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-18.60828305914176</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.342739025450228</v>
+        <v>-6.676147609617624</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4248348487502613</v>
+        <v>-0.5585596299756513</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.47365887051361</v>
+        <v>-6.01743457674186</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-18.68465321411707</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.215796057096853</v>
+        <v>-6.567272019185831</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7086890666617242</v>
+        <v>-0.8562524119908187</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.520751883835299</v>
+        <v>-6.036496969679414</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-18.68001813031769</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.020864760086392</v>
+        <v>-6.380457949937241</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6320467258262598</v>
+        <v>-0.7578637561352473</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.362884896169766</v>
+        <v>-5.86504017166417</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-18.60247861898646</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.921742935271685</v>
+        <v>-6.303828701404618</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7029022688056812</v>
+        <v>-0.828614560691935</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.291099799688582</v>
+        <v>-5.769165237954209</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-18.45823935279897</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.926403795083339</v>
+        <v>-6.31923834184933</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8262579461804243</v>
+        <v>-0.9617763728951307</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.136466610824955</v>
+        <v>-5.574024464098282</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-18.25719539016752</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.977791083737114</v>
+        <v>-6.376621905204615</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8705099297854584</v>
+        <v>-1.017719782937826</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.951040325677589</v>
+        <v>-5.403929265578577</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-18.01732547532048</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.199221201699227</v>
+        <v>-6.593522086383491</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7532290809292762</v>
+        <v>-0.897244412188263</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.812824884577487</v>
+        <v>-5.252294214065706</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-17.74796105218514</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.386846993724004</v>
+        <v>-6.765018161307261</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.08502731184714</v>
+        <v>-1.245892436863428</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.64521722359771</v>
+        <v>-5.083023830625029</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-17.46274082311053</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.866391862210746</v>
+        <v>-7.23323818783591</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.015467906849049</v>
+        <v>-1.182578060320841</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.445860728226747</v>
+        <v>-4.848449040609824</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-17.17752399813537</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.313271435107382</v>
+        <v>-7.657206230759526</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.075247361624371</v>
+        <v>-1.251914896170622</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.371430986571534</v>
+        <v>-4.786875940345186</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-16.90051794398404</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.909717475667896</v>
+        <v>-8.259334330753349</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.13599564680998</v>
+        <v>-1.299937462994073</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.998850232301694</v>
+        <v>-4.430176149422359</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-16.64126779157848</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.325921783006368</v>
+        <v>-8.669882763264194</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.12659537336962</v>
+        <v>-1.322155100916482</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.84166404438393</v>
+        <v>-4.29251058504161</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-16.40519053045939</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.785959120258939</v>
+        <v>-9.116120813321587</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.278060224945549</v>
+        <v>-1.433059998288744</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.480342670557975</v>
+        <v>-3.939267162068998</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-16.19083298630709</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.684405310469549</v>
+        <v>-9.999078809270435</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.239581946893716</v>
+        <v>-1.419535649453241</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.477920594532255</v>
+        <v>-3.95027778875889</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-16.00031866194908</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.45893285428322</v>
+        <v>-10.74422722550727</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.321657593408497</v>
+        <v>-1.504923648586978</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.28135275966658</v>
+        <v>-3.743746711430661</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-15.82765051843433</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.26506521715682</v>
+        <v>-11.52825978118404</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.450957176273383</v>
+        <v>-1.640376613787476</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.936619333541091</v>
+        <v>-3.417944755214308</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-15.66761344166628</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.45349282300882</v>
+        <v>-12.71956769366122</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.520307104426007</v>
+        <v>-1.705667928059164</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.793337171241241</v>
+        <v>-3.271101486541509</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-15.52435482445724</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.34043087902155</v>
+        <v>-13.59350509295212</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.595299815103413</v>
+        <v>-1.766651874695924</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.46368607798942</v>
+        <v>-2.938347517516199</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-15.39302517834636</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.48705476189992</v>
+        <v>-14.70487140427772</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.783645683784485</v>
+        <v>-1.952732774985377</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.20511309686533</v>
+        <v>-2.68584936491067</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-15.27544825334023</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.55536048917909</v>
+        <v>-15.75622259937685</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.822961869218188</v>
+        <v>-1.98309382527534</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.784719252617506</v>
+        <v>-2.254379432458745</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-15.17628773812683</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.95264960226514</v>
+        <v>-17.14835334514326</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.792430618991283</v>
+        <v>-1.921271971256709</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.487798916470001</v>
+        <v>-1.985489716695376</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-15.09735254964009</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.59484333230852</v>
+        <v>-18.77003143663366</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.018888181244619</v>
+        <v>-2.143605458114901</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.303446200155656</v>
+        <v>-1.805549106438692</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-15.04650472557571</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.17813479186698</v>
+        <v>-20.34578172975529</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.238694853654358</v>
+        <v>-2.352702626800108</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.017575767606567</v>
+        <v>-1.5225327959091</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-15.02737100901332</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.93023840426666</v>
+        <v>-22.03246310485486</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.42173833968453</v>
+        <v>-2.50517558569485</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.159627253439295</v>
+        <v>-1.659713945084706</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-15.04255265539332</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.60076387765954</v>
+        <v>-23.67478775792666</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.518477365382044</v>
+        <v>-2.618541836001356</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.9594983122006704</v>
+        <v>-1.459205327063671</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-15.09882063569848</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.69748308545913</v>
+        <v>-25.77752942503344</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.658970867176606</v>
+        <v>-2.723293351038006</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.939637288789772</v>
+        <v>-1.430258245480615</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-15.19044063883731</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.92219264583943</v>
+        <v>-27.98970965159421</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.518647565318986</v>
+        <v>-2.569013654351106</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.053828354175307</v>
+        <v>-1.521446134773237</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-15.31532636420522</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.1955270189739</v>
+        <v>-30.24759510737545</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.982769701058175</v>
+        <v>-3.004673123712383</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.404060547494321</v>
+        <v>-1.880633463235991</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-15.47023732763858</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.41023405998313</v>
+        <v>-32.47852351160557</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.023892624284037</v>
+        <v>-3.011297828950296</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.653482008932044</v>
+        <v>-2.142217674013678</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-15.64096191605463</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.63833452679943</v>
+        <v>-34.72156229596429</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.337728215703053</v>
+        <v>-3.282059744020033</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.845284245563331</v>
+        <v>-2.317130839979138</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-15.82089713165476</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.1511663958176</v>
+        <v>-37.22230996945954</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.588746938087466</v>
+        <v>-3.534217496751678</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.27299668709968</v>
+        <v>-2.77064821041653</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-15.99525582604107</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.64394085688225</v>
+        <v>-39.66960177045203</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.519213717695059</v>
+        <v>-3.471557735351176</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.737891268706531</v>
+        <v>-3.24987886363507</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-16.1569973069908</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.20933832180994</v>
+        <v>-42.24064201790451</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.697255944039692</v>
+        <v>-3.649717792421385</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.049029845740151</v>
+        <v>-3.536443188234771</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-16.29097329990299</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.50180054939618</v>
+        <v>-44.53972895072866</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.919170477206949</v>
+        <v>-3.85334237851875</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.607364192728401</v>
+        <v>-4.048182029409317</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-16.40370849549278</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.82375973528482</v>
+        <v>-46.85914822986601</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.060501886383382</v>
+        <v>-3.980272254569285</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.908618081116518</v>
+        <v>-4.354908500385276</v>
       </c>
     </row>
   </sheetData>
